--- a/DATA_goal/Junction_Flooding_344.xlsx
+++ b/DATA_goal/Junction_Flooding_344.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45025.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45025.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.09</v>
+        <v>50.92</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.28</v>
+        <v>42.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.94</v>
+        <v>19.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.59</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.84</v>
+        <v>28.39</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.4</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.56</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.72</v>
+        <v>27.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.84</v>
+        <v>278.39</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.24</v>
+        <v>52.41</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.69</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.32</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.36</v>
+        <v>33.55</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.26</v>
+        <v>22.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.92</v>
+        <v>59.22</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45025.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.99</v>
+        <v>29.93</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.72</v>
+        <v>27.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45025.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.26</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.69</v>
+        <v>26.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_344.xlsx
+++ b/DATA_goal/Junction_Flooding_344.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>45025.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -759,94 +759,94 @@
         <v>45025.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>25.19</v>
+        <v>25.193</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>18.14</v>
+        <v>18.142</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.92</v>
+        <v>50.918</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.78</v>
+        <v>42.777</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>19.38</v>
+        <v>19.383</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.90000000000001</v>
+        <v>65.902</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.39</v>
+        <v>28.389</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.99</v>
+        <v>12.993</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>20.4</v>
+        <v>20.402</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.56</v>
+        <v>20.565</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.48</v>
+        <v>21.483</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.05</v>
+        <v>6.052</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.29</v>
+        <v>18.292</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>27.25</v>
+        <v>27.247</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.31</v>
+        <v>15.308</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.574</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.39</v>
+        <v>278.391</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.41</v>
+        <v>52.411</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.69</v>
+        <v>17.686</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.72</v>
+        <v>35.719</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.32</v>
+        <v>18.323</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.46</v>
+        <v>2.465</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.55</v>
+        <v>33.554</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.24</v>
+        <v>15.235</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.1</v>
+        <v>13.102</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.52</v>
+        <v>15.523</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.65</v>
+        <v>22.647</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>59.22</v>
@@ -855,7 +855,7 @@
         <v>9.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.34</v>
+        <v>21.345</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45025.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.9</v>
+        <v>8.904999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.245</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>16.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.43</v>
+        <v>14.433</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.78</v>
+        <v>6.784</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.93</v>
+        <v>29.927</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>9.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.44</v>
+        <v>4.445</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.19</v>
+        <v>7.187</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.9</v>
+        <v>6.905</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.05</v>
+        <v>7.046</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.064</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.06</v>
+        <v>6.062</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.51</v>
+        <v>9.507</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.11</v>
+        <v>5.107</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.73999999999999</v>
+        <v>89.73699999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.08</v>
+        <v>18.075</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.122</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.35</v>
+        <v>12.354</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.14</v>
+        <v>6.144</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.15</v>
+        <v>14.148</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.35</v>
+        <v>4.345</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.18</v>
+        <v>5.179</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.91</v>
+        <v>7.913</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.21</v>
+        <v>27.212</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>3.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.15</v>
+        <v>7.148</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>2.44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45025.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.14</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.84</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_344.xlsx
+++ b/DATA_goal/Junction_Flooding_344.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>3.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.266</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.6</v>
+        <v>5.596</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.55</v>
+        <v>2.551</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.155</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.11</v>
+        <v>3.108</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.6</v>
+        <v>1.604</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.74</v>
+        <v>2.739</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.37</v>
+        <v>2.371</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.273</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.02</v>
+        <v>2.016</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.56</v>
+        <v>3.561</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.72</v>
+        <v>1.723</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.258</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.87</v>
+        <v>26.868</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.53</v>
+        <v>6.533</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.54</v>
+        <v>4.539</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.12</v>
+        <v>2.116</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.296</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.99</v>
+        <v>5.993</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.82</v>
+        <v>1.817</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.44</v>
+        <v>1.437</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.737</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.96</v>
+        <v>2.964</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.91</v>
+        <v>11.915</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.031</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.44</v>
+        <v>2.436</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45025.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.84</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_344.xlsx
+++ b/DATA_goal/Junction_Flooding_344.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>3.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.266</v>
+        <v>2.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.596</v>
+        <v>5.6</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.551</v>
+        <v>2.55</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.155</v>
+        <v>13.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.108</v>
+        <v>3.11</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.604</v>
+        <v>1.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.739</v>
+        <v>2.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.371</v>
+        <v>2.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.273</v>
+        <v>2.27</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.016</v>
+        <v>2.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.561</v>
+        <v>3.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.723</v>
+        <v>1.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.258</v>
+        <v>0.26</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.868</v>
+        <v>26.87</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.533</v>
+        <v>6.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.249</v>
+        <v>2.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.539</v>
+        <v>4.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.116</v>
+        <v>2.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.296</v>
+        <v>0.3</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.993</v>
+        <v>5.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.817</v>
+        <v>1.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.437</v>
+        <v>1.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.737</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.964</v>
+        <v>2.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.915</v>
+        <v>11.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.031</v>
+        <v>1.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.436</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45025.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.14</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.84</v>
+        <v>2.44</v>
       </c>
     </row>
   </sheetData>
